--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/15/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.1862</v>
+        <v>16.2365</v>
       </c>
     </row>
     <row r="4">
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.9669</v>
+        <v>-13.0462</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>5.9898</v>
+        <v>5.886199999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>4.876499999999998</v>
+        <v>5.3579</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.917200000000002</v>
+        <v>4.7867</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.94999999999999</v>
+        <v>-13.74069999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -737,16 +737,16 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>7.604699999999993</v>
+        <v>7.469199999999995</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.53199999999999</v>
+        <v>-11.57409999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.03140000000002</v>
+        <v>18.07700000000001</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.4736</v>
+        <v>16.43850000000001</v>
       </c>
     </row>
     <row r="20">
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.1517</v>
+        <v>-11.9377</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.59399999999999</v>
+        <v>16.56519999999999</v>
       </c>
     </row>
     <row r="28">
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.18990000000001</v>
+        <v>-11.43570000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.113</v>
+        <v>-12.91779999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,13 +961,13 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.3077</v>
+        <v>-13.14349999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.3938</v>
+        <v>16.5398</v>
       </c>
     </row>
     <row r="32">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.7043</v>
+        <v>8.830000000000002</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.25729999999999</v>
+        <v>16.385</v>
       </c>
     </row>
     <row r="39">
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.83940000000001</v>
+        <v>-12.90530000000001</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.4055</v>
+        <v>16.39229999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.50649999999999</v>
+        <v>16.6071</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.5462</v>
+        <v>16.68759999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.31519999999999</v>
+        <v>-13.05629999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.444099999999993</v>
+        <v>6.601199999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.21690000000001</v>
+        <v>16.14270000000002</v>
       </c>
     </row>
     <row r="59">
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.29100000000001</v>
+        <v>17.34260000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1587,10 +1587,10 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>5.985900000000002</v>
+        <v>6.1562</v>
       </c>
       <c r="C68" t="n">
-        <v>-12.1433</v>
+        <v>-12.08690000000001</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.50580000000002</v>
+        <v>17.41210000000002</v>
       </c>
     </row>
     <row r="74">
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.65180000000001</v>
+        <v>-12.4139</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.038400000000006</v>
+        <v>9.152800000000006</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.283000000000005</v>
+        <v>9.371200000000004</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.404900000000003</v>
+        <v>5.276600000000005</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.378800000000001</v>
+        <v>5.212100000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.7229</v>
+        <v>-13.90469999999999</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.85009999999999</v>
+        <v>-12.79539999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.36209999999999</v>
+        <v>16.46069999999999</v>
       </c>
     </row>
     <row r="91">
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>18.98040000000002</v>
+        <v>18.98490000000002</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.26450000000003</v>
+        <v>18.17660000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.726</v>
+        <v>-12.79950000000001</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.25779999999999</v>
+        <v>-12.12229999999999</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2151,13 +2151,13 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.21570000000001</v>
+        <v>-12.16080000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.76150000000002</v>
+        <v>16.6445</v>
       </c>
     </row>
     <row r="102">
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.90460000000001</v>
+        <v>-13.06810000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
